--- a/biology/Médecine/Kazimierz_Dąbrowski/Kazimierz_Dąbrowski.xlsx
+++ b/biology/Médecine/Kazimierz_Dąbrowski/Kazimierz_Dąbrowski.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Kazimierz_D%C4%85browski</t>
+          <t>Kazimierz_Dąbrowski</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Kazimierz Dąbrowski (1er septembre 1902 à Klarów — 26 novembre 1980 à Varsovie) est un psychiatre et psychologue polonais.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Kazimierz_D%C4%85browski</t>
+          <t>Kazimierz_Dąbrowski</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,6 +524,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -519,7 +533,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Kazimierz_D%C4%85browski</t>
+          <t>Kazimierz_Dąbrowski</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -537,7 +551,9 @@
           <t>Concept de désintégration positive</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Kazimierz Dąbrowski a développé le concept de la désintégration positive. Il est co-auteur d'un dictionnaire de sa pensée, Le Dynamisme des concepts publié en 1972.
 </t>
@@ -550,7 +566,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Kazimierz_D%C4%85browski</t>
+          <t>Kazimierz_Dąbrowski</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -568,7 +584,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Nerwowosc dzieci i mlodziezy (1935)
 Spoleczno-wychowawcza psychiatria dziecieca (1959)
@@ -583,9 +601,43 @@
 The dynamics of concepts (1972)
 Trud istnienia (1975)
 Dezintegracja pozytywna (1979)
-W poszukiwaniu zdrowia psychicznego (1989)
-Ouvrages traduits en français
-La croissance mentale par la désintégration positive, Saint Yves Inc, Ste-Foy, 1972.
+W poszukiwaniu zdrowia psychicznego (1989)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Kazimierz_Dąbrowski</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Kazimierz_D%C4%85browski</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Ouvrages traduits en français</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>La croissance mentale par la désintégration positive, Saint Yves Inc, Ste-Foy, 1972.
 La psychonévrose n'est pas une maladie, Saint Yves Inc, 1972.
 Psychothérapies actuelles, Saint Yves Inc, Ste-Foy, 1977.
 S'il y a un toxicomane dans votre famille, Saint Yves Inc, Ste-Foy, 1977.
